--- a/kaihong— database.xlsx
+++ b/kaihong— database.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="97">
   <si>
     <t>账单</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -190,31 +190,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>表单号（bill表中）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>word</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>内容</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>noter</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>留言人</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>留言时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>note_date</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -769,8 +749,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:P44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="B42" sqref="B42"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10:C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -840,13 +820,13 @@
         <v>37</v>
       </c>
       <c r="N3" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="O3" t="s">
         <v>32</v>
       </c>
       <c r="P3" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
     </row>
     <row r="4" spans="1:16">
@@ -866,10 +846,10 @@
         <v>12</v>
       </c>
       <c r="F4" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="G4" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="H4" t="s">
         <v>17</v>
@@ -890,13 +870,13 @@
         <v>36</v>
       </c>
       <c r="N4" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="O4" t="s">
         <v>33</v>
       </c>
       <c r="P4" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
     </row>
     <row r="5" spans="1:16">
@@ -965,16 +945,7 @@
         <v>40</v>
       </c>
       <c r="C10" t="s">
-        <v>42</v>
-      </c>
-      <c r="D10" t="s">
-        <v>44</v>
-      </c>
-      <c r="E10" t="s">
-        <v>46</v>
-      </c>
-      <c r="F10" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
     </row>
     <row r="11" spans="1:16">
@@ -985,16 +956,7 @@
         <v>41</v>
       </c>
       <c r="C11" t="s">
-        <v>43</v>
-      </c>
-      <c r="D11" t="s">
-        <v>45</v>
-      </c>
-      <c r="E11" t="s">
-        <v>47</v>
-      </c>
-      <c r="F11" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="12" spans="1:16">
@@ -1005,24 +967,15 @@
         <v>3</v>
       </c>
       <c r="C12" t="s">
-        <v>3</v>
-      </c>
-      <c r="D12" t="s">
-        <v>8</v>
-      </c>
-      <c r="E12" t="s">
-        <v>9</v>
-      </c>
-      <c r="F12" t="s">
-        <v>26</v>
+        <v>8</v>
       </c>
     </row>
     <row r="15" spans="1:16">
       <c r="B15" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="C15" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -1033,16 +986,16 @@
         <v>32</v>
       </c>
       <c r="C17" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="D17" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="E17" t="s">
         <v>20</v>
       </c>
       <c r="F17" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -1053,16 +1006,16 @@
         <v>41</v>
       </c>
       <c r="C18" t="s">
+        <v>48</v>
+      </c>
+      <c r="D18" t="s">
+        <v>50</v>
+      </c>
+      <c r="E18" t="s">
+        <v>51</v>
+      </c>
+      <c r="F18" t="s">
         <v>53</v>
-      </c>
-      <c r="D18" t="s">
-        <v>55</v>
-      </c>
-      <c r="E18" t="s">
-        <v>56</v>
-      </c>
-      <c r="F18" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -1087,10 +1040,10 @@
     </row>
     <row r="22" spans="1:9">
       <c r="B22" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="C22" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -1101,10 +1054,10 @@
         <v>32</v>
       </c>
       <c r="C24" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="D24" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="E24" t="s">
         <v>20</v>
@@ -1121,16 +1074,16 @@
         <v>41</v>
       </c>
       <c r="C25" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="D25" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="E25" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="F25" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -1155,10 +1108,10 @@
     </row>
     <row r="29" spans="1:9">
       <c r="B29" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="C29" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -1166,7 +1119,7 @@
         <v>6</v>
       </c>
       <c r="B30" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="C30" t="s">
         <v>42</v>
@@ -1175,16 +1128,16 @@
         <v>30</v>
       </c>
       <c r="E30" t="s">
+        <v>62</v>
+      </c>
+      <c r="F30" t="s">
+        <v>92</v>
+      </c>
+      <c r="G30" t="s">
         <v>67</v>
       </c>
-      <c r="F30" t="s">
-        <v>97</v>
-      </c>
-      <c r="G30" t="s">
-        <v>72</v>
-      </c>
       <c r="H30" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="I30" t="s">
         <v>40</v>
@@ -1198,25 +1151,25 @@
         <v>41</v>
       </c>
       <c r="C31" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="D31" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="E31" t="s">
         <v>31</v>
       </c>
       <c r="F31" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="G31" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="H31" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="I31" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -1250,10 +1203,10 @@
     </row>
     <row r="35" spans="1:8">
       <c r="B35" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="C35" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1261,22 +1214,22 @@
         <v>6</v>
       </c>
       <c r="B36" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="C36" t="s">
         <v>32</v>
       </c>
       <c r="D36" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="E36" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="F36" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="G36" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1287,19 +1240,19 @@
         <v>41</v>
       </c>
       <c r="C37" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="D37" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="E37" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="F37" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="G37" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1327,7 +1280,7 @@
     </row>
     <row r="41" spans="1:8">
       <c r="B41" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1335,25 +1288,25 @@
         <v>6</v>
       </c>
       <c r="B42" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="C42" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="D42" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="E42" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="F42" t="s">
         <v>32</v>
       </c>
       <c r="G42" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="H42" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1364,22 +1317,22 @@
         <v>41</v>
       </c>
       <c r="C43" t="s">
+        <v>84</v>
+      </c>
+      <c r="D43" t="s">
+        <v>85</v>
+      </c>
+      <c r="E43" t="s">
+        <v>88</v>
+      </c>
+      <c r="F43" t="s">
         <v>89</v>
       </c>
-      <c r="D43" t="s">
-        <v>90</v>
-      </c>
-      <c r="E43" t="s">
-        <v>93</v>
-      </c>
-      <c r="F43" t="s">
+      <c r="G43" t="s">
+        <v>91</v>
+      </c>
+      <c r="H43" t="s">
         <v>94</v>
-      </c>
-      <c r="G43" t="s">
-        <v>96</v>
-      </c>
-      <c r="H43" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="44" spans="1:8">

--- a/kaihong— database.xlsx
+++ b/kaihong— database.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="103">
   <si>
     <t>账单</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -70,10 +70,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>tinyint</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>payfrom</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -138,10 +134,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>oper</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>操作时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -310,10 +302,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>sate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>印章状态</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -403,6 +391,42 @@
   </si>
   <si>
     <t>uer_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>edep_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>edep_name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>edep_no</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>op</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>操作</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>scx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否冲销</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bit</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -747,10 +771,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P44"/>
+  <dimension ref="A1:Q44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10:C12"/>
+      <selection activeCell="P5" sqref="P5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -765,26 +789,26 @@
     <col min="9" max="9" width="14.875" customWidth="1"/>
     <col min="10" max="10" width="8.75" customWidth="1"/>
     <col min="11" max="11" width="11.375" customWidth="1"/>
-    <col min="12" max="13" width="10.625" customWidth="1"/>
-    <col min="14" max="14" width="17.25" customWidth="1"/>
-    <col min="15" max="15" width="15.625" customWidth="1"/>
-    <col min="16" max="16" width="13" customWidth="1"/>
+    <col min="12" max="14" width="10.625" customWidth="1"/>
+    <col min="15" max="15" width="17.25" customWidth="1"/>
+    <col min="16" max="16" width="15.625" customWidth="1"/>
+    <col min="17" max="17" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:17">
       <c r="B1" t="s">
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" t="s">
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C3" t="s">
         <v>1</v>
@@ -796,45 +820,48 @@
         <v>11</v>
       </c>
       <c r="F3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" t="s">
         <v>14</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>15</v>
       </c>
-      <c r="H3" t="s">
-        <v>16</v>
-      </c>
       <c r="I3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="L3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="M3" t="s">
-        <v>37</v>
+        <v>100</v>
       </c>
       <c r="N3" t="s">
-        <v>63</v>
+        <v>35</v>
       </c>
       <c r="O3" t="s">
-        <v>32</v>
+        <v>61</v>
       </c>
       <c r="P3" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16">
+        <v>30</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" t="s">
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C4" t="s">
         <v>2</v>
@@ -846,40 +873,43 @@
         <v>12</v>
       </c>
       <c r="F4" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G4" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="H4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="L4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="M4" t="s">
-        <v>36</v>
+        <v>101</v>
       </c>
       <c r="N4" t="s">
-        <v>65</v>
+        <v>34</v>
       </c>
       <c r="O4" t="s">
-        <v>33</v>
+        <v>63</v>
       </c>
       <c r="P4" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16">
+        <v>31</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -893,73 +923,76 @@
         <v>9</v>
       </c>
       <c r="E5" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="F5" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="G5" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="H5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I5" t="s">
         <v>8</v>
       </c>
       <c r="J5" t="s">
+        <v>3</v>
+      </c>
+      <c r="K5" t="s">
+        <v>25</v>
+      </c>
+      <c r="L5" t="s">
+        <v>28</v>
+      </c>
+      <c r="M5" t="s">
+        <v>102</v>
+      </c>
+      <c r="N5" t="s">
         <v>9</v>
       </c>
-      <c r="K5" t="s">
-        <v>26</v>
-      </c>
-      <c r="L5" t="s">
-        <v>29</v>
-      </c>
-      <c r="M5" t="s">
-        <v>9</v>
-      </c>
-      <c r="N5" t="s">
-        <v>3</v>
-      </c>
       <c r="O5" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="P5" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:16">
+    <row r="8" spans="1:17">
       <c r="B8" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C8" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" t="s">
         <v>6</v>
       </c>
       <c r="B10" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C10" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" t="s">
         <v>5</v>
       </c>
       <c r="B11" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C11" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" t="s">
         <v>4</v>
       </c>
@@ -970,55 +1003,55 @@
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:16">
+    <row r="15" spans="1:17">
       <c r="B15" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C15" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17" t="s">
         <v>6</v>
       </c>
       <c r="B17" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C17" t="s">
+        <v>45</v>
+      </c>
+      <c r="D17" t="s">
         <v>47</v>
       </c>
-      <c r="D17" t="s">
-        <v>49</v>
-      </c>
       <c r="E17" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F17" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
       <c r="A18" t="s">
         <v>5</v>
       </c>
       <c r="B18" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C18" t="s">
+        <v>46</v>
+      </c>
+      <c r="D18" t="s">
         <v>48</v>
       </c>
-      <c r="D18" t="s">
-        <v>50</v>
-      </c>
       <c r="E18" t="s">
+        <v>49</v>
+      </c>
+      <c r="F18" t="s">
         <v>51</v>
       </c>
-      <c r="F18" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9">
+    </row>
+    <row r="19" spans="1:10">
       <c r="A19" t="s">
         <v>4</v>
       </c>
@@ -1038,55 +1071,55 @@
         <v>8</v>
       </c>
     </row>
-    <row r="22" spans="1:9">
+    <row r="22" spans="1:10">
       <c r="B22" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C22" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
       <c r="A24" t="s">
         <v>6</v>
       </c>
       <c r="B24" t="s">
-        <v>32</v>
+        <v>94</v>
       </c>
       <c r="C24" t="s">
-        <v>47</v>
+        <v>95</v>
       </c>
       <c r="D24" t="s">
-        <v>49</v>
+        <v>96</v>
       </c>
       <c r="E24" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F24" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
       <c r="A25" t="s">
         <v>5</v>
       </c>
       <c r="B25" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C25" t="s">
+        <v>46</v>
+      </c>
+      <c r="D25" t="s">
         <v>48</v>
       </c>
-      <c r="D25" t="s">
-        <v>50</v>
-      </c>
       <c r="E25" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F25" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
       <c r="A26" t="s">
         <v>4</v>
       </c>
@@ -1106,73 +1139,79 @@
         <v>3</v>
       </c>
     </row>
-    <row r="29" spans="1:9">
+    <row r="29" spans="1:10">
       <c r="B29" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C29" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
       <c r="A30" t="s">
         <v>6</v>
       </c>
       <c r="B30" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C30" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D30" t="s">
-        <v>30</v>
+        <v>93</v>
       </c>
       <c r="E30" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F30" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="G30" t="s">
+        <v>65</v>
+      </c>
+      <c r="H30" t="s">
         <v>67</v>
       </c>
-      <c r="H30" t="s">
-        <v>69</v>
-      </c>
       <c r="I30" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9">
+        <v>38</v>
+      </c>
+      <c r="J30" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
       <c r="A31" t="s">
         <v>5</v>
       </c>
       <c r="B31" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C31" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D31" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E31" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F31" t="s">
+        <v>64</v>
+      </c>
+      <c r="G31" t="s">
         <v>66</v>
       </c>
-      <c r="G31" t="s">
+      <c r="H31" t="s">
         <v>68</v>
       </c>
-      <c r="H31" t="s">
-        <v>70</v>
-      </c>
       <c r="I31" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9">
+        <v>78</v>
+      </c>
+      <c r="J31" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
       <c r="A32" t="s">
         <v>4</v>
       </c>
@@ -1186,7 +1225,7 @@
         <v>3</v>
       </c>
       <c r="E32" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F32" t="s">
         <v>9</v>
@@ -1200,13 +1239,16 @@
       <c r="I32" t="s">
         <v>3</v>
       </c>
+      <c r="J32" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="35" spans="1:8">
       <c r="B35" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C35" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1214,22 +1256,22 @@
         <v>6</v>
       </c>
       <c r="B36" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C36" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D36" t="s">
-        <v>73</v>
+        <v>87</v>
       </c>
       <c r="E36" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="F36" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="G36" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1237,22 +1279,22 @@
         <v>5</v>
       </c>
       <c r="B37" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C37" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D37" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="E37" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="F37" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="G37" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1266,7 +1308,7 @@
         <v>3</v>
       </c>
       <c r="D38" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E38" t="s">
         <v>8</v>
@@ -1280,7 +1322,7 @@
     </row>
     <row r="41" spans="1:8">
       <c r="B41" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1288,25 +1330,25 @@
         <v>6</v>
       </c>
       <c r="B42" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C42" t="s">
+        <v>80</v>
+      </c>
+      <c r="D42" t="s">
         <v>83</v>
       </c>
-      <c r="D42" t="s">
-        <v>86</v>
-      </c>
       <c r="E42" t="s">
+        <v>84</v>
+      </c>
+      <c r="F42" t="s">
+        <v>30</v>
+      </c>
+      <c r="G42" t="s">
         <v>87</v>
       </c>
-      <c r="F42" t="s">
-        <v>32</v>
-      </c>
-      <c r="G42" t="s">
+      <c r="H42" t="s">
         <v>90</v>
-      </c>
-      <c r="H42" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1314,25 +1356,25 @@
         <v>5</v>
       </c>
       <c r="B43" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C43" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D43" t="s">
+        <v>82</v>
+      </c>
+      <c r="E43" t="s">
         <v>85</v>
       </c>
-      <c r="E43" t="s">
+      <c r="F43" t="s">
+        <v>86</v>
+      </c>
+      <c r="G43" t="s">
         <v>88</v>
       </c>
-      <c r="F43" t="s">
-        <v>89</v>
-      </c>
-      <c r="G43" t="s">
+      <c r="H43" t="s">
         <v>91</v>
-      </c>
-      <c r="H43" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1355,7 +1397,7 @@
         <v>3</v>
       </c>
       <c r="G44" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H44" t="s">
         <v>9</v>

--- a/kaihong— database.xlsx
+++ b/kaihong— database.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="102">
   <si>
     <t>账单</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -162,14 +162,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>附言</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>note</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>note_id</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -182,251 +174,255 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>部门</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dep</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dep_name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单位名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dep_no</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单位账号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单位说明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dep_short</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单位名缩写</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>往来单位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>exc_dep</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>支付方式编码(excdep)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>收款方编码(excdep)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>所属单位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>审批操作</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>所属单据号（bill表）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>操作人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>op_date</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>op</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>op_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当前操纵作（op表）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当前环节</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>before_op</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上一步操作opid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sig_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>操作对应印章id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>印章信息表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sig</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>印章状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sig_word</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>base64位字符化图像</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>印章类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>secret</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>内容加密</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对应留言note</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>uer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>psw</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>密码（base64）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>uer_name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>uer_no</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户工号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户所属部门</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>state</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lvl</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>uer_lvl</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户等级对应印章等级及审批操作等级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>印章对应用户及op操作lvl</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>uer_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>edep_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>edep_name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>edep_no</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>op</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>操作</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>scx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否冲销</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>word</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>内容</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>部门</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dep</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dep_name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>单位名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dep_no</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>单位账号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>单位说明</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dep_short</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>单位名缩写</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>往来单位</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>exc_dep</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>支付方式编码(excdep)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>收款方编码(excdep)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>所属单位</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>审批操作</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>所属单据号（bill表）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>操作人</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>op_date</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>op</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>op_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>当前操纵作（op表）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>当前环节</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>before_op</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>上一步操作opid</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sig_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>操作对应印章id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>印章信息表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sig</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>印章状态</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sig_word</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>base64位字符化图像</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>type</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>印章类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>secret</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>内容加密</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>对应留言note</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>uer</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>psw</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>密码（base64）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>uer_name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>uer_no</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户工号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户所属部门</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>state</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户状态</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>lvl</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>uer_lvl</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户等级对应印章等级及审批操作等级</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>印章对应用户及op操作lvl</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>uer_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>edep_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>edep_name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>edep_no</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>op</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>操作</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>scx</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>是否冲销</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bit</t>
+    <t>操作说明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>text</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -771,10 +767,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q44"/>
+  <dimension ref="A1:Q39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P5" sqref="P5"/>
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -841,19 +837,19 @@
         <v>26</v>
       </c>
       <c r="M3" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="N3" t="s">
         <v>35</v>
       </c>
       <c r="O3" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="P3" t="s">
         <v>30</v>
       </c>
       <c r="Q3" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -873,10 +869,10 @@
         <v>12</v>
       </c>
       <c r="F4" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="G4" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="H4" t="s">
         <v>16</v>
@@ -894,19 +890,19 @@
         <v>27</v>
       </c>
       <c r="M4" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="N4" t="s">
         <v>34</v>
       </c>
       <c r="O4" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="P4" t="s">
         <v>31</v>
       </c>
       <c r="Q4" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -947,7 +943,7 @@
         <v>28</v>
       </c>
       <c r="M5" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="N5" t="s">
         <v>9</v>
@@ -962,444 +958,412 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:17">
-      <c r="B8" t="s">
-        <v>36</v>
-      </c>
-      <c r="C8" t="s">
-        <v>37</v>
-      </c>
-    </row>
     <row r="10" spans="1:17">
-      <c r="A10" t="s">
-        <v>6</v>
-      </c>
       <c r="B10" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C10" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
-      <c r="A11" t="s">
-        <v>5</v>
-      </c>
-      <c r="B11" t="s">
-        <v>39</v>
-      </c>
-      <c r="C11" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="12" spans="1:17">
       <c r="A12" t="s">
+        <v>6</v>
+      </c>
+      <c r="B12" t="s">
+        <v>30</v>
+      </c>
+      <c r="C12" t="s">
+        <v>41</v>
+      </c>
+      <c r="D12" t="s">
+        <v>43</v>
+      </c>
+      <c r="E12" t="s">
+        <v>19</v>
+      </c>
+      <c r="F12" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
+      <c r="A13" t="s">
+        <v>5</v>
+      </c>
+      <c r="B13" t="s">
+        <v>37</v>
+      </c>
+      <c r="C13" t="s">
+        <v>42</v>
+      </c>
+      <c r="D13" t="s">
+        <v>44</v>
+      </c>
+      <c r="E13" t="s">
+        <v>45</v>
+      </c>
+      <c r="F13" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
+      <c r="A14" t="s">
         <v>4</v>
       </c>
-      <c r="B12" t="s">
-        <v>3</v>
-      </c>
-      <c r="C12" t="s">
+      <c r="B14" t="s">
+        <v>3</v>
+      </c>
+      <c r="C14" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="15" spans="1:17">
-      <c r="B15" t="s">
-        <v>43</v>
-      </c>
-      <c r="C15" t="s">
+      <c r="D14" t="s">
+        <v>8</v>
+      </c>
+      <c r="E14" t="s">
+        <v>8</v>
+      </c>
+      <c r="F14" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
+      <c r="B17" t="s">
+        <v>48</v>
+      </c>
+      <c r="C17" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
+      <c r="A19" t="s">
+        <v>6</v>
+      </c>
+      <c r="B19" t="s">
+        <v>90</v>
+      </c>
+      <c r="C19" t="s">
+        <v>91</v>
+      </c>
+      <c r="D19" t="s">
+        <v>92</v>
+      </c>
+      <c r="E19" t="s">
+        <v>19</v>
+      </c>
+      <c r="F19" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
+      <c r="A20" t="s">
+        <v>5</v>
+      </c>
+      <c r="B20" t="s">
+        <v>37</v>
+      </c>
+      <c r="C20" t="s">
+        <v>42</v>
+      </c>
+      <c r="D20" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="17" spans="1:10">
-      <c r="A17" t="s">
+      <c r="E20" t="s">
+        <v>45</v>
+      </c>
+      <c r="F20" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
+      <c r="A21" t="s">
+        <v>4</v>
+      </c>
+      <c r="B21" t="s">
+        <v>3</v>
+      </c>
+      <c r="C21" t="s">
+        <v>8</v>
+      </c>
+      <c r="D21" t="s">
+        <v>8</v>
+      </c>
+      <c r="E21" t="s">
+        <v>8</v>
+      </c>
+      <c r="F21" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11">
+      <c r="B24" t="s">
+        <v>53</v>
+      </c>
+      <c r="C24" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11">
+      <c r="A25" t="s">
         <v>6</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B25" t="s">
+        <v>58</v>
+      </c>
+      <c r="C25" t="s">
+        <v>38</v>
+      </c>
+      <c r="D25" t="s">
+        <v>89</v>
+      </c>
+      <c r="E25" t="s">
+        <v>56</v>
+      </c>
+      <c r="F25" t="s">
+        <v>85</v>
+      </c>
+      <c r="G25" t="s">
+        <v>61</v>
+      </c>
+      <c r="H25" t="s">
+        <v>63</v>
+      </c>
+      <c r="I25" t="s">
+        <v>36</v>
+      </c>
+      <c r="J25" t="s">
+        <v>93</v>
+      </c>
+      <c r="K25" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11">
+      <c r="A26" t="s">
+        <v>5</v>
+      </c>
+      <c r="B26" t="s">
+        <v>37</v>
+      </c>
+      <c r="C26" t="s">
+        <v>54</v>
+      </c>
+      <c r="D26" t="s">
+        <v>55</v>
+      </c>
+      <c r="E26" t="s">
+        <v>29</v>
+      </c>
+      <c r="F26" t="s">
+        <v>60</v>
+      </c>
+      <c r="G26" t="s">
+        <v>62</v>
+      </c>
+      <c r="H26" t="s">
+        <v>64</v>
+      </c>
+      <c r="I26" t="s">
+        <v>74</v>
+      </c>
+      <c r="J26" t="s">
+        <v>94</v>
+      </c>
+      <c r="K26" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11">
+      <c r="A27" t="s">
+        <v>4</v>
+      </c>
+      <c r="B27" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" t="s">
+        <v>3</v>
+      </c>
+      <c r="D27" t="s">
+        <v>3</v>
+      </c>
+      <c r="E27" t="s">
+        <v>25</v>
+      </c>
+      <c r="F27" t="s">
+        <v>9</v>
+      </c>
+      <c r="G27" t="s">
+        <v>3</v>
+      </c>
+      <c r="H27" t="s">
+        <v>3</v>
+      </c>
+      <c r="I27" t="s">
+        <v>3</v>
+      </c>
+      <c r="J27" t="s">
+        <v>95</v>
+      </c>
+      <c r="K27" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11">
+      <c r="B30" t="s">
+        <v>65</v>
+      </c>
+      <c r="C30" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11">
+      <c r="A31" t="s">
+        <v>6</v>
+      </c>
+      <c r="B31" t="s">
+        <v>63</v>
+      </c>
+      <c r="C31" t="s">
         <v>30</v>
       </c>
-      <c r="C17" t="s">
-        <v>45</v>
-      </c>
-      <c r="D17" t="s">
-        <v>47</v>
-      </c>
-      <c r="E17" t="s">
-        <v>19</v>
-      </c>
-      <c r="F17" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10">
-      <c r="A18" t="s">
+      <c r="D31" t="s">
+        <v>83</v>
+      </c>
+      <c r="E31" t="s">
+        <v>68</v>
+      </c>
+      <c r="F31" t="s">
+        <v>70</v>
+      </c>
+      <c r="G31" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11">
+      <c r="A32" t="s">
         <v>5</v>
       </c>
-      <c r="B18" t="s">
-        <v>39</v>
-      </c>
-      <c r="C18" t="s">
-        <v>46</v>
-      </c>
-      <c r="D18" t="s">
-        <v>48</v>
-      </c>
-      <c r="E18" t="s">
-        <v>49</v>
-      </c>
-      <c r="F18" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10">
-      <c r="A19" t="s">
+      <c r="B32" t="s">
+        <v>37</v>
+      </c>
+      <c r="C32" t="s">
+        <v>52</v>
+      </c>
+      <c r="D32" t="s">
+        <v>67</v>
+      </c>
+      <c r="E32" t="s">
+        <v>69</v>
+      </c>
+      <c r="F32" t="s">
+        <v>71</v>
+      </c>
+      <c r="G32" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
+      <c r="A33" t="s">
         <v>4</v>
       </c>
-      <c r="B19" t="s">
-        <v>3</v>
-      </c>
-      <c r="C19" t="s">
+      <c r="B33" t="s">
+        <v>3</v>
+      </c>
+      <c r="C33" t="s">
+        <v>3</v>
+      </c>
+      <c r="D33" t="s">
+        <v>28</v>
+      </c>
+      <c r="E33" t="s">
         <v>8</v>
       </c>
-      <c r="D19" t="s">
-        <v>8</v>
-      </c>
-      <c r="E19" t="s">
-        <v>8</v>
-      </c>
-      <c r="F19" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10">
-      <c r="B22" t="s">
-        <v>52</v>
-      </c>
-      <c r="C22" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10">
-      <c r="A24" t="s">
-        <v>6</v>
-      </c>
-      <c r="B24" t="s">
-        <v>94</v>
-      </c>
-      <c r="C24" t="s">
-        <v>95</v>
-      </c>
-      <c r="D24" t="s">
-        <v>96</v>
-      </c>
-      <c r="E24" t="s">
-        <v>19</v>
-      </c>
-      <c r="F24" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10">
-      <c r="A25" t="s">
-        <v>5</v>
-      </c>
-      <c r="B25" t="s">
-        <v>39</v>
-      </c>
-      <c r="C25" t="s">
-        <v>46</v>
-      </c>
-      <c r="D25" t="s">
-        <v>48</v>
-      </c>
-      <c r="E25" t="s">
-        <v>49</v>
-      </c>
-      <c r="F25" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10">
-      <c r="A26" t="s">
-        <v>4</v>
-      </c>
-      <c r="B26" t="s">
-        <v>3</v>
-      </c>
-      <c r="C26" t="s">
-        <v>8</v>
-      </c>
-      <c r="D26" t="s">
-        <v>8</v>
-      </c>
-      <c r="E26" t="s">
-        <v>8</v>
-      </c>
-      <c r="F26" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10">
-      <c r="B29" t="s">
-        <v>57</v>
-      </c>
-      <c r="C29" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10">
-      <c r="A30" t="s">
-        <v>6</v>
-      </c>
-      <c r="B30" t="s">
-        <v>62</v>
-      </c>
-      <c r="C30" t="s">
-        <v>40</v>
-      </c>
-      <c r="D30" t="s">
-        <v>93</v>
-      </c>
-      <c r="E30" t="s">
-        <v>60</v>
-      </c>
-      <c r="F30" t="s">
-        <v>89</v>
-      </c>
-      <c r="G30" t="s">
-        <v>65</v>
-      </c>
-      <c r="H30" t="s">
-        <v>67</v>
-      </c>
-      <c r="I30" t="s">
-        <v>38</v>
-      </c>
-      <c r="J30" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10">
-      <c r="A31" t="s">
-        <v>5</v>
-      </c>
-      <c r="B31" t="s">
-        <v>39</v>
-      </c>
-      <c r="C31" t="s">
-        <v>58</v>
-      </c>
-      <c r="D31" t="s">
-        <v>59</v>
-      </c>
-      <c r="E31" t="s">
-        <v>29</v>
-      </c>
-      <c r="F31" t="s">
-        <v>64</v>
-      </c>
-      <c r="G31" t="s">
-        <v>66</v>
-      </c>
-      <c r="H31" t="s">
-        <v>68</v>
-      </c>
-      <c r="I31" t="s">
-        <v>78</v>
-      </c>
-      <c r="J31" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10">
-      <c r="A32" t="s">
-        <v>4</v>
-      </c>
-      <c r="B32" t="s">
-        <v>3</v>
-      </c>
-      <c r="C32" t="s">
-        <v>3</v>
-      </c>
-      <c r="D32" t="s">
-        <v>3</v>
-      </c>
-      <c r="E32" t="s">
-        <v>25</v>
-      </c>
-      <c r="F32" t="s">
+      <c r="F33" t="s">
         <v>9</v>
       </c>
-      <c r="G32" t="s">
-        <v>3</v>
-      </c>
-      <c r="H32" t="s">
-        <v>3</v>
-      </c>
-      <c r="I32" t="s">
-        <v>3</v>
-      </c>
-      <c r="J32" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8">
-      <c r="B35" t="s">
-        <v>69</v>
-      </c>
-      <c r="C35" t="s">
-        <v>70</v>
+      <c r="G33" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="36" spans="1:8">
-      <c r="A36" t="s">
-        <v>6</v>
-      </c>
       <c r="B36" t="s">
-        <v>67</v>
-      </c>
-      <c r="C36" t="s">
-        <v>30</v>
-      </c>
-      <c r="D36" t="s">
-        <v>87</v>
-      </c>
-      <c r="E36" t="s">
-        <v>72</v>
-      </c>
-      <c r="F36" t="s">
-        <v>74</v>
-      </c>
-      <c r="G36" t="s">
-        <v>89</v>
+        <v>75</v>
       </c>
     </row>
     <row r="37" spans="1:8">
       <c r="A37" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B37" t="s">
-        <v>39</v>
+        <v>89</v>
       </c>
       <c r="C37" t="s">
-        <v>56</v>
+        <v>76</v>
       </c>
       <c r="D37" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="E37" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="F37" t="s">
-        <v>75</v>
+        <v>30</v>
       </c>
       <c r="G37" t="s">
-        <v>92</v>
+        <v>83</v>
+      </c>
+      <c r="H37" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="38" spans="1:8">
       <c r="A38" t="s">
+        <v>5</v>
+      </c>
+      <c r="B38" t="s">
+        <v>37</v>
+      </c>
+      <c r="C38" t="s">
+        <v>77</v>
+      </c>
+      <c r="D38" t="s">
+        <v>78</v>
+      </c>
+      <c r="E38" t="s">
+        <v>81</v>
+      </c>
+      <c r="F38" t="s">
+        <v>82</v>
+      </c>
+      <c r="G38" t="s">
+        <v>84</v>
+      </c>
+      <c r="H38" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
+      <c r="A39" t="s">
         <v>4</v>
       </c>
-      <c r="B38" t="s">
-        <v>3</v>
-      </c>
-      <c r="C38" t="s">
-        <v>3</v>
-      </c>
-      <c r="D38" t="s">
+      <c r="B39" t="s">
+        <v>3</v>
+      </c>
+      <c r="C39" t="s">
+        <v>8</v>
+      </c>
+      <c r="D39" t="s">
+        <v>8</v>
+      </c>
+      <c r="E39" t="s">
+        <v>8</v>
+      </c>
+      <c r="F39" t="s">
+        <v>3</v>
+      </c>
+      <c r="G39" t="s">
         <v>28</v>
       </c>
-      <c r="E38" t="s">
-        <v>8</v>
-      </c>
-      <c r="F38" t="s">
-        <v>9</v>
-      </c>
-      <c r="G38" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8">
-      <c r="B41" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8">
-      <c r="A42" t="s">
-        <v>6</v>
-      </c>
-      <c r="B42" t="s">
-        <v>93</v>
-      </c>
-      <c r="C42" t="s">
-        <v>80</v>
-      </c>
-      <c r="D42" t="s">
-        <v>83</v>
-      </c>
-      <c r="E42" t="s">
-        <v>84</v>
-      </c>
-      <c r="F42" t="s">
-        <v>30</v>
-      </c>
-      <c r="G42" t="s">
-        <v>87</v>
-      </c>
-      <c r="H42" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8">
-      <c r="A43" t="s">
-        <v>5</v>
-      </c>
-      <c r="B43" t="s">
-        <v>39</v>
-      </c>
-      <c r="C43" t="s">
-        <v>81</v>
-      </c>
-      <c r="D43" t="s">
-        <v>82</v>
-      </c>
-      <c r="E43" t="s">
-        <v>85</v>
-      </c>
-      <c r="F43" t="s">
-        <v>86</v>
-      </c>
-      <c r="G43" t="s">
-        <v>88</v>
-      </c>
-      <c r="H43" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8">
-      <c r="A44" t="s">
-        <v>4</v>
-      </c>
-      <c r="B44" t="s">
-        <v>3</v>
-      </c>
-      <c r="C44" t="s">
-        <v>8</v>
-      </c>
-      <c r="D44" t="s">
-        <v>8</v>
-      </c>
-      <c r="E44" t="s">
-        <v>8</v>
-      </c>
-      <c r="F44" t="s">
-        <v>3</v>
-      </c>
-      <c r="G44" t="s">
-        <v>28</v>
-      </c>
-      <c r="H44" t="s">
+      <c r="H39" t="s">
         <v>9</v>
       </c>
     </row>
